--- a/Autofill_Sumary/Information_License_plate.xlsx
+++ b/Autofill_Sumary/Information_License_plate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LicensePlateRecognition\Autofill_Sumary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DBA741-AEA4-46D2-8668-E96231D9BA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022C1E6-C8FC-42B7-9EC5-0D9F5895B9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,9 +219,6 @@
     <t>Đỏ</t>
   </si>
   <si>
-    <t>71C167672</t>
-  </si>
-  <si>
     <t>TRẦN THÁI AN</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>VARIO</t>
   </si>
   <si>
-    <t>71C190875</t>
-  </si>
-  <si>
     <t>NGUYỄN ĐỨC ANH</t>
   </si>
   <si>
@@ -246,9 +240,6 @@
     <t>SIRIUS</t>
   </si>
   <si>
-    <t>71C126943</t>
-  </si>
-  <si>
     <t>PHẠM HOÀNG</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
     <t>Xám</t>
   </si>
   <si>
-    <t>71C390875</t>
-  </si>
-  <si>
     <t>LÊ HOÀNG ĐÔ</t>
   </si>
   <si>
@@ -303,19 +291,31 @@
     <t>24342</t>
   </si>
   <si>
-    <t>24346</t>
-  </si>
-  <si>
-    <t>57557</t>
-  </si>
-  <si>
-    <t>57573</t>
-  </si>
-  <si>
-    <t>37653</t>
-  </si>
-  <si>
     <t>0383626591</t>
+  </si>
+  <si>
+    <t>71B1</t>
+  </si>
+  <si>
+    <t>23268</t>
+  </si>
+  <si>
+    <t>61890</t>
+  </si>
+  <si>
+    <t>71C2</t>
+  </si>
+  <si>
+    <t>71B2</t>
+  </si>
+  <si>
+    <t>06796</t>
+  </si>
+  <si>
+    <t>66L1</t>
+  </si>
+  <si>
+    <t>25944</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,10 +713,10 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -876,7 +876,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -926,7 +926,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -982,7 +982,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -1038,7 +1038,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="3">
         <v>318455455</v>
@@ -1121,7 +1121,7 @@
         <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
       </c>
       <c r="E8" s="3">
         <v>321670981</v>
@@ -1174,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -1203,16 +1203,16 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3">
         <v>309542109</v>
@@ -1230,13 +1230,13 @@
         <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M9">
         <v>97</v>
@@ -1259,16 +1259,16 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3">
         <v>364951257</v>
@@ -1286,10 +1286,10 @@
         <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -1315,19 +1315,19 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G11" s="2">
         <v>36850</v>

--- a/Autofill_Sumary/Information_License_plate.xlsx
+++ b/Autofill_Sumary/Information_License_plate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LicensePlateRecognition\Autofill_Sumary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022C1E6-C8FC-42B7-9EC5-0D9F5895B9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4F8760-549C-48DE-825C-30E3BA1E868C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28965" yWindow="450" windowWidth="7770" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>C100MSE1115256</t>
   </si>
   <si>
-    <t>71B18120</t>
-  </si>
-  <si>
     <t>VŨ TƯỜNG VY</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>B354NVA2346578</t>
   </si>
   <si>
-    <t>71B18955</t>
-  </si>
-  <si>
     <t>NGUYỄN NGỌC LOAN</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>Đen</t>
   </si>
   <si>
-    <t>71C212465</t>
-  </si>
-  <si>
     <t>LÂM CAO PHƯƠNG</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>WINNER X</t>
   </si>
   <si>
-    <t>71B72898</t>
-  </si>
-  <si>
     <t>TRƯƠNG DŨNG</t>
   </si>
   <si>
@@ -282,15 +270,6 @@
     <t>12345</t>
   </si>
   <si>
-    <t>42342</t>
-  </si>
-  <si>
-    <t>23423</t>
-  </si>
-  <si>
-    <t>24342</t>
-  </si>
-  <si>
     <t>0383626591</t>
   </si>
   <si>
@@ -316,6 +295,27 @@
   </si>
   <si>
     <t>25944</t>
+  </si>
+  <si>
+    <t>71B3</t>
+  </si>
+  <si>
+    <t>02449</t>
+  </si>
+  <si>
+    <t>71C3</t>
+  </si>
+  <si>
+    <t>39626</t>
+  </si>
+  <si>
+    <t>71B</t>
+  </si>
+  <si>
+    <t>85616</t>
+  </si>
+  <si>
+    <t>85084</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,10 +713,10 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
       </c>
       <c r="E3" s="3">
         <v>321597777</v>
@@ -903,19 +903,19 @@
         <v>36</v>
       </c>
       <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
         <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
       </c>
       <c r="M3">
         <v>125</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -923,16 +923,16 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="3">
         <v>356981902</v>
@@ -953,10 +953,10 @@
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M4">
         <v>97</v>
@@ -979,16 +979,16 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3">
         <v>396781298</v>
@@ -1009,7 +1009,7 @@
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
@@ -1035,16 +1035,16 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3">
         <v>329088882</v>
@@ -1065,10 +1065,10 @@
         <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M6">
         <v>97</v>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3">
         <v>318455455</v>
@@ -1121,10 +1121,10 @@
         <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M7">
         <v>97</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3">
         <v>321670981</v>
@@ -1174,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -1203,16 +1203,16 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3">
         <v>309542109</v>
@@ -1230,13 +1230,13 @@
         <v>35</v>
       </c>
       <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s">
         <v>65</v>
       </c>
-      <c r="K9" t="s">
-        <v>69</v>
-      </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M9">
         <v>97</v>
@@ -1259,16 +1259,16 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3">
         <v>364951257</v>
@@ -1286,13 +1286,13 @@
         <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M10">
         <v>97</v>
@@ -1315,19 +1315,19 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="G11" s="2">
         <v>36850</v>

--- a/Autofill_Sumary/Information_License_plate.xlsx
+++ b/Autofill_Sumary/Information_License_plate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LicensePlateRecognition\Autofill_Sumary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022C1E6-C8FC-42B7-9EC5-0D9F5895B9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D226F-D1B2-496C-B7E1-7E1E99E7AAA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$10</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
   <si>
     <t>Chủ xe</t>
   </si>
@@ -135,33 +135,18 @@
     <t>Ngày sang tên di chuyển</t>
   </si>
   <si>
-    <t>63B972948</t>
-  </si>
-  <si>
-    <t>LÊ VĂN SANG</t>
-  </si>
-  <si>
-    <t>242 Bình Tạo A -Trung An-MT-TG</t>
-  </si>
-  <si>
     <t>Hai bánh từ 50-175 cm3</t>
   </si>
   <si>
     <t>HONDA</t>
   </si>
   <si>
-    <t>DREAM</t>
-  </si>
-  <si>
     <t>Xanh</t>
   </si>
   <si>
     <t>C100MSE1115256</t>
   </si>
   <si>
-    <t>71B18120</t>
-  </si>
-  <si>
     <t>VŨ TƯỜNG VY</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>B354NVA2346578</t>
   </si>
   <si>
-    <t>71B18955</t>
-  </si>
-  <si>
     <t>NGUYỄN NGỌC LOAN</t>
   </si>
   <si>
@@ -192,9 +174,6 @@
     <t>Đen</t>
   </si>
   <si>
-    <t>71C212465</t>
-  </si>
-  <si>
     <t>LÂM CAO PHƯƠNG</t>
   </si>
   <si>
@@ -204,9 +183,6 @@
     <t>WINNER X</t>
   </si>
   <si>
-    <t>71B72898</t>
-  </si>
-  <si>
     <t>TRƯƠNG DŨNG</t>
   </si>
   <si>
@@ -279,18 +255,6 @@
     <t>Lê Huỳnh Yến Nhi</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>42342</t>
-  </si>
-  <si>
-    <t>23423</t>
-  </si>
-  <si>
-    <t>24342</t>
-  </si>
-  <si>
     <t>0383626591</t>
   </si>
   <si>
@@ -316,6 +280,129 @@
   </si>
   <si>
     <t>25944</t>
+  </si>
+  <si>
+    <t>71B3</t>
+  </si>
+  <si>
+    <t>02449</t>
+  </si>
+  <si>
+    <t>71C3</t>
+  </si>
+  <si>
+    <t>39626</t>
+  </si>
+  <si>
+    <t>71B</t>
+  </si>
+  <si>
+    <t>85616</t>
+  </si>
+  <si>
+    <t>85084</t>
+  </si>
+  <si>
+    <t>Chu_xe</t>
+  </si>
+  <si>
+    <t>Dia_chi</t>
+  </si>
+  <si>
+    <t>So_CMND</t>
+  </si>
+  <si>
+    <t>So_DT</t>
+  </si>
+  <si>
+    <t>Date_CMND</t>
+  </si>
+  <si>
+    <t>Tinh</t>
+  </si>
+  <si>
+    <t>Loai_xe</t>
+  </si>
+  <si>
+    <t>Nhan_hieu</t>
+  </si>
+  <si>
+    <t>So_loai</t>
+  </si>
+  <si>
+    <t>Mau_son</t>
+  </si>
+  <si>
+    <t>Dung_tich</t>
+  </si>
+  <si>
+    <t>Cong_suat</t>
+  </si>
+  <si>
+    <t>So_may</t>
+  </si>
+  <si>
+    <t>So_khung</t>
+  </si>
+  <si>
+    <t>Tu_trong</t>
+  </si>
+  <si>
+    <t>Tai_trong</t>
+  </si>
+  <si>
+    <t>Trong_luong_keo_theo</t>
+  </si>
+  <si>
+    <t>So_cho_ngoi</t>
+  </si>
+  <si>
+    <t>So_cho_dung</t>
+  </si>
+  <si>
+    <t>So_cho_nam</t>
+  </si>
+  <si>
+    <t>Nam_san_xuat</t>
+  </si>
+  <si>
+    <t>Han_su_dung</t>
+  </si>
+  <si>
+    <t>Ngay_dang_ky_moi</t>
+  </si>
+  <si>
+    <t>Dang_ky_xe_co_gia_tri</t>
+  </si>
+  <si>
+    <t>Ngay_dang_ky_lan_dau</t>
+  </si>
+  <si>
+    <t>Bien_so_cu</t>
+  </si>
+  <si>
+    <t>Cai_tao</t>
+  </si>
+  <si>
+    <t>Ngay_cai_tao</t>
+  </si>
+  <si>
+    <t>Thu_hoi</t>
+  </si>
+  <si>
+    <t>Ngay_thu_hoi</t>
+  </si>
+  <si>
+    <t>Sang_ten_di_chuyen_di</t>
+  </si>
+  <si>
+    <t>Ngay_sang_ten_di_chuyen</t>
+  </si>
+  <si>
+    <t>Bien_so_phan_1</t>
+  </si>
+  <si>
+    <t>Bien_so_phan_2</t>
   </si>
 </sst>
 </file>
@@ -360,12 +447,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,671 +762,722 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" customWidth="1"/>
-    <col min="26" max="26" width="17.44140625" customWidth="1"/>
-    <col min="27" max="27" width="20.33203125" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" customWidth="1"/>
-    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" customWidth="1"/>
-    <col min="32" max="32" width="14" customWidth="1"/>
-    <col min="33" max="33" width="18.6640625" customWidth="1"/>
-    <col min="34" max="34" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="19.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="1"/>
+    <col min="32" max="32" width="14" style="1" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="21.33203125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3">
-        <v>310452125</v>
-      </c>
-      <c r="F2" s="3">
-        <v>839495079</v>
-      </c>
-      <c r="G2" s="2">
-        <v>38002</v>
-      </c>
-      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2">
-        <v>97</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>43200</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>42739</v>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <v>321597777</v>
+      </c>
+      <c r="F3" s="1">
+        <v>946120908</v>
+      </c>
+      <c r="G3" s="1">
+        <v>41706</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1">
+        <v>125</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3">
-        <v>321597777</v>
-      </c>
-      <c r="F3" s="3">
-        <v>946120908</v>
-      </c>
-      <c r="G3" s="2">
-        <v>41706</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3">
-        <v>125</v>
-      </c>
-      <c r="O3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3">
+      <c r="P3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
         <v>356981902</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>839574914</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>38458</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1">
+        <v>97</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4">
-        <v>97</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4">
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="1">
         <v>2</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>43200</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="A5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
         <v>396781298</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>918329079</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>37273</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1">
+        <v>97</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5">
-        <v>97</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5">
+      <c r="P5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="1">
         <v>2</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>43200</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="A6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1">
         <v>329088882</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>873295146</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>38185</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="1">
+        <v>97</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6">
-        <v>97</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6">
+      <c r="P6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="1">
         <v>2</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="1">
         <v>43200</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1">
         <v>318455455</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>837326541</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>38810</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="1">
+        <v>97</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7">
-        <v>97</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7">
+      <c r="P7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="1">
         <v>2</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>43200</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1">
         <v>321670981</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>918673775</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>43395</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="1">
+        <v>97</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8">
-        <v>97</v>
-      </c>
-      <c r="O8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8">
+      <c r="P8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="1">
         <v>2</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="1">
         <v>43200</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="A9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1">
         <v>309542109</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>939763639</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>36904</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="1">
+        <v>97</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9">
+      <c r="P9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="1">
         <v>2</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="1">
         <v>43200</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1">
         <v>364951257</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>913562476</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>36850</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="1">
+        <v>97</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10">
-        <v>97</v>
-      </c>
-      <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10">
+      <c r="P10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="1">
         <v>2</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="1">
         <v>43200</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1">
         <v>36850</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Autofill_Sumary/Information_License_plate.xlsx
+++ b/Autofill_Sumary/Information_License_plate.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LicensePlateRecognition\Autofill_Sumary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4F8760-549C-48DE-825C-30E3BA1E868C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226AFD01-1551-40F1-B02A-20C5A8B07D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28965" yWindow="450" windowWidth="7770" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$10</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
   <si>
     <t>Chủ xe</t>
   </si>
@@ -135,24 +135,12 @@
     <t>Ngày sang tên di chuyển</t>
   </si>
   <si>
-    <t>63B972948</t>
-  </si>
-  <si>
-    <t>LÊ VĂN SANG</t>
-  </si>
-  <si>
-    <t>242 Bình Tạo A -Trung An-MT-TG</t>
-  </si>
-  <si>
     <t>Hai bánh từ 50-175 cm3</t>
   </si>
   <si>
     <t>HONDA</t>
   </si>
   <si>
-    <t>DREAM</t>
-  </si>
-  <si>
     <t>Xanh</t>
   </si>
   <si>
@@ -267,9 +255,6 @@
     <t>Lê Huỳnh Yến Nhi</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
     <t>0383626591</t>
   </si>
   <si>
@@ -316,6 +301,108 @@
   </si>
   <si>
     <t>85084</t>
+  </si>
+  <si>
+    <t>Chu_xe</t>
+  </si>
+  <si>
+    <t>Dia_chi</t>
+  </si>
+  <si>
+    <t>So_CMND</t>
+  </si>
+  <si>
+    <t>So_DT</t>
+  </si>
+  <si>
+    <t>Date_CMND</t>
+  </si>
+  <si>
+    <t>Tinh</t>
+  </si>
+  <si>
+    <t>Loai_xe</t>
+  </si>
+  <si>
+    <t>Nhan_hieu</t>
+  </si>
+  <si>
+    <t>So_loai</t>
+  </si>
+  <si>
+    <t>Mau_son</t>
+  </si>
+  <si>
+    <t>Dung_tich</t>
+  </si>
+  <si>
+    <t>Cong_suat</t>
+  </si>
+  <si>
+    <t>So_may</t>
+  </si>
+  <si>
+    <t>So_khung</t>
+  </si>
+  <si>
+    <t>Tu_trong</t>
+  </si>
+  <si>
+    <t>Tai_trong</t>
+  </si>
+  <si>
+    <t>Trong_luong_keo_theo</t>
+  </si>
+  <si>
+    <t>So_cho_ngoi</t>
+  </si>
+  <si>
+    <t>So_cho_dung</t>
+  </si>
+  <si>
+    <t>So_cho_nam</t>
+  </si>
+  <si>
+    <t>Nam_san_xuat</t>
+  </si>
+  <si>
+    <t>Han_su_dung</t>
+  </si>
+  <si>
+    <t>Ngay_dang_ky_moi</t>
+  </si>
+  <si>
+    <t>Dang_ky_xe_co_gia_tri</t>
+  </si>
+  <si>
+    <t>Ngay_dang_ky_lan_dau</t>
+  </si>
+  <si>
+    <t>Bien_so_cu</t>
+  </si>
+  <si>
+    <t>Cai_tao</t>
+  </si>
+  <si>
+    <t>Ngay_cai_tao</t>
+  </si>
+  <si>
+    <t>Thu_hoi</t>
+  </si>
+  <si>
+    <t>Ngay_thu_hoi</t>
+  </si>
+  <si>
+    <t>Sang_ten_di_chuyen_di</t>
+  </si>
+  <si>
+    <t>Ngay_sang_ten_di_chuyen</t>
+  </si>
+  <si>
+    <t>Bien_so_phan_1</t>
+  </si>
+  <si>
+    <t>Bien_so_phan_2</t>
   </si>
 </sst>
 </file>
@@ -360,12 +447,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,672 +761,723 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" customWidth="1"/>
-    <col min="26" max="26" width="17.44140625" customWidth="1"/>
-    <col min="27" max="27" width="20.33203125" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" customWidth="1"/>
-    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" customWidth="1"/>
-    <col min="32" max="32" width="14" customWidth="1"/>
-    <col min="33" max="33" width="18.6640625" customWidth="1"/>
-    <col min="34" max="34" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="19.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="1"/>
+    <col min="32" max="32" width="14" style="1" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="21.33203125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3">
-        <v>310452125</v>
-      </c>
-      <c r="F2" s="3">
-        <v>839495079</v>
-      </c>
-      <c r="G2" s="2">
-        <v>38002</v>
-      </c>
-      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2">
-        <v>97</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>43200</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>42739</v>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <v>321597777</v>
+      </c>
+      <c r="F3" s="1">
+        <v>946120908</v>
+      </c>
+      <c r="G3" s="1">
+        <v>41706</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1">
+        <v>125</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3">
-        <v>321597777</v>
-      </c>
-      <c r="F3" s="3">
-        <v>946120908</v>
-      </c>
-      <c r="G3" s="2">
-        <v>41706</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3">
-        <v>125</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3">
+      <c r="P3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
         <v>356981902</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>839574914</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>38458</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1">
+        <v>97</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4">
-        <v>97</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4">
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="1">
         <v>2</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>43200</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="A5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
         <v>396781298</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>918329079</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>37273</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1">
+        <v>97</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5">
-        <v>97</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5">
+      <c r="P5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="1">
         <v>2</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>43200</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="A6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1">
         <v>329088882</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>873295146</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>38185</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="1">
+        <v>97</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6">
-        <v>97</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6">
+      <c r="P6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="1">
         <v>2</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="1">
         <v>43200</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1">
         <v>318455455</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>837326541</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>38810</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="1">
+        <v>97</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7">
-        <v>97</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7">
+      <c r="P7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="1">
         <v>2</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>43200</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1">
         <v>321670981</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>918673775</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>43395</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="1">
+        <v>97</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8">
-        <v>97</v>
-      </c>
-      <c r="O8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8">
+      <c r="P8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="1">
         <v>2</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="1">
         <v>43200</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="A9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1">
         <v>309542109</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>939763639</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>36904</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="1">
+        <v>97</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9">
+      <c r="P9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="1">
         <v>2</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="1">
         <v>43200</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1">
         <v>364951257</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>913562476</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>36850</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="1">
+        <v>97</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10">
-        <v>97</v>
-      </c>
-      <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10">
+      <c r="P10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="1">
         <v>2</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="1">
         <v>43200</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="1">
         <v>42739</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1">
         <v>36850</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
